--- a/wristband/v4Plus/adi_v3_1ADC.xlsx
+++ b/wristband/v4Plus/adi_v3_1ADC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU\Ben50\wristband\v4Plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2804DF-DF7B-41E2-9845-F4532288163F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28B11ED-4BAB-4528-861D-21BA9E9CE116}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="random" sheetId="9" r:id="rId3"/>
     <sheet name="calibration1" sheetId="4" r:id="rId4"/>
     <sheet name="random1" sheetId="5" r:id="rId5"/>
-    <sheet name="calibration2" sheetId="6" r:id="rId6"/>
-    <sheet name="random2" sheetId="7" r:id="rId7"/>
+    <sheet name="calibration2" sheetId="10" r:id="rId6"/>
+    <sheet name="random2" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -2944,7 +2944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E206FE22-6854-4F51-892C-A74E3BFDED13}">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -5809,7 +5809,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
@@ -8270,8 +8272,405 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478A1552-9195-406D-B104-90524073C0A1}">
   <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+      <c r="H1">
+        <v>4</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>6</v>
+      </c>
+      <c r="K1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D2">
+        <v>412.16</v>
+      </c>
+      <c r="E2">
+        <v>386.38</v>
+      </c>
+      <c r="F2">
+        <v>388.73</v>
+      </c>
+      <c r="G2">
+        <v>414.77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D3">
+        <v>406.56</v>
+      </c>
+      <c r="E3">
+        <v>382.51</v>
+      </c>
+      <c r="F3">
+        <v>381.81</v>
+      </c>
+      <c r="G3">
+        <v>402.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C4" t="s">
+        <v>488</v>
+      </c>
+      <c r="D4">
+        <v>410.75</v>
+      </c>
+      <c r="E4">
+        <v>377.33</v>
+      </c>
+      <c r="F4">
+        <v>386.52</v>
+      </c>
+      <c r="G4">
+        <v>394.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C5" t="s">
+        <v>490</v>
+      </c>
+      <c r="D5">
+        <v>409.97</v>
+      </c>
+      <c r="E5">
+        <v>375.42</v>
+      </c>
+      <c r="F5">
+        <v>380.77</v>
+      </c>
+      <c r="G5">
+        <v>392.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C6" t="s">
+        <v>492</v>
+      </c>
+      <c r="D6">
+        <v>406.25</v>
+      </c>
+      <c r="E6">
+        <v>371.65</v>
+      </c>
+      <c r="F6">
+        <v>376.51</v>
+      </c>
+      <c r="G6">
+        <v>381.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>493</v>
+      </c>
+      <c r="C7" t="s">
+        <v>494</v>
+      </c>
+      <c r="D7">
+        <v>406.41</v>
+      </c>
+      <c r="E7">
+        <v>378.29</v>
+      </c>
+      <c r="F7">
+        <v>377.05</v>
+      </c>
+      <c r="G7">
+        <v>387.31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>495</v>
+      </c>
+      <c r="C8" t="s">
+        <v>496</v>
+      </c>
+      <c r="D8">
+        <v>403.42</v>
+      </c>
+      <c r="E8">
+        <v>374.2</v>
+      </c>
+      <c r="F8">
+        <v>373.73</v>
+      </c>
+      <c r="G8">
+        <v>380.77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>497</v>
+      </c>
+      <c r="C9" t="s">
+        <v>498</v>
+      </c>
+      <c r="D9">
+        <v>401.23</v>
+      </c>
+      <c r="E9">
+        <v>372.32</v>
+      </c>
+      <c r="F9">
+        <v>373.53</v>
+      </c>
+      <c r="G9">
+        <v>377.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>499</v>
+      </c>
+      <c r="C10" t="s">
+        <v>500</v>
+      </c>
+      <c r="D10">
+        <v>405.41</v>
+      </c>
+      <c r="E10">
+        <v>376.92</v>
+      </c>
+      <c r="F10">
+        <v>372.72</v>
+      </c>
+      <c r="G10">
+        <v>385.46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>501</v>
+      </c>
+      <c r="C11" t="s">
+        <v>502</v>
+      </c>
+      <c r="D11">
+        <v>408.26</v>
+      </c>
+      <c r="E11">
+        <v>378.42</v>
+      </c>
+      <c r="F11">
+        <v>383.28</v>
+      </c>
+      <c r="G11">
+        <v>387.31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>503</v>
+      </c>
+      <c r="C12" t="s">
+        <v>504</v>
+      </c>
+      <c r="D12">
+        <v>402.66</v>
+      </c>
+      <c r="E12">
+        <v>374.2</v>
+      </c>
+      <c r="F12">
+        <v>375.08</v>
+      </c>
+      <c r="G12">
+        <v>374.74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>505</v>
+      </c>
+      <c r="C13" t="s">
+        <v>506</v>
+      </c>
+      <c r="D13">
+        <v>407.64</v>
+      </c>
+      <c r="E13">
+        <v>375.96</v>
+      </c>
+      <c r="F13">
+        <v>372.46</v>
+      </c>
+      <c r="G13">
+        <v>378.56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>507</v>
+      </c>
+      <c r="C14" t="s">
+        <v>508</v>
+      </c>
+      <c r="D14">
+        <v>402.36</v>
+      </c>
+      <c r="E14">
+        <v>375.08</v>
+      </c>
+      <c r="F14">
+        <v>371.85</v>
+      </c>
+      <c r="G14">
+        <v>373.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>509</v>
+      </c>
+      <c r="C15" t="s">
+        <v>510</v>
+      </c>
+      <c r="D15">
+        <v>400.4</v>
+      </c>
+      <c r="E15">
+        <v>373.46</v>
+      </c>
+      <c r="F15">
+        <v>369.73</v>
+      </c>
+      <c r="G15">
+        <v>376.03</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C16" t="s">
+        <v>512</v>
+      </c>
+      <c r="D16">
+        <v>400.63</v>
+      </c>
+      <c r="E16">
+        <v>374.81</v>
+      </c>
+      <c r="F16">
+        <v>366.83</v>
+      </c>
+      <c r="G16">
+        <v>370.52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C32D7A-658E-48C4-AACC-B31F3FE54DEE}">
+  <dimension ref="A1:K106"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8314,402 +8713,6 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>483</v>
-      </c>
-      <c r="C2" t="s">
-        <v>484</v>
-      </c>
-      <c r="D2">
-        <v>412.16</v>
-      </c>
-      <c r="E2">
-        <v>386.38</v>
-      </c>
-      <c r="F2">
-        <v>388.73</v>
-      </c>
-      <c r="G2">
-        <v>414.77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>485</v>
-      </c>
-      <c r="C3" t="s">
-        <v>486</v>
-      </c>
-      <c r="D3">
-        <v>406.56</v>
-      </c>
-      <c r="E3">
-        <v>382.51</v>
-      </c>
-      <c r="F3">
-        <v>381.81</v>
-      </c>
-      <c r="G3">
-        <v>402.59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>487</v>
-      </c>
-      <c r="C4" t="s">
-        <v>488</v>
-      </c>
-      <c r="D4">
-        <v>410.75</v>
-      </c>
-      <c r="E4">
-        <v>377.33</v>
-      </c>
-      <c r="F4">
-        <v>386.52</v>
-      </c>
-      <c r="G4">
-        <v>394.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>489</v>
-      </c>
-      <c r="C5" t="s">
-        <v>490</v>
-      </c>
-      <c r="D5">
-        <v>409.97</v>
-      </c>
-      <c r="E5">
-        <v>375.42</v>
-      </c>
-      <c r="F5">
-        <v>380.77</v>
-      </c>
-      <c r="G5">
-        <v>392.42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>491</v>
-      </c>
-      <c r="C6" t="s">
-        <v>492</v>
-      </c>
-      <c r="D6">
-        <v>406.25</v>
-      </c>
-      <c r="E6">
-        <v>371.65</v>
-      </c>
-      <c r="F6">
-        <v>376.51</v>
-      </c>
-      <c r="G6">
-        <v>381.67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>493</v>
-      </c>
-      <c r="C7" t="s">
-        <v>494</v>
-      </c>
-      <c r="D7">
-        <v>406.41</v>
-      </c>
-      <c r="E7">
-        <v>378.29</v>
-      </c>
-      <c r="F7">
-        <v>377.05</v>
-      </c>
-      <c r="G7">
-        <v>387.31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>495</v>
-      </c>
-      <c r="C8" t="s">
-        <v>496</v>
-      </c>
-      <c r="D8">
-        <v>403.42</v>
-      </c>
-      <c r="E8">
-        <v>374.2</v>
-      </c>
-      <c r="F8">
-        <v>373.73</v>
-      </c>
-      <c r="G8">
-        <v>380.77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>497</v>
-      </c>
-      <c r="C9" t="s">
-        <v>498</v>
-      </c>
-      <c r="D9">
-        <v>401.23</v>
-      </c>
-      <c r="E9">
-        <v>372.32</v>
-      </c>
-      <c r="F9">
-        <v>373.53</v>
-      </c>
-      <c r="G9">
-        <v>377.53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>499</v>
-      </c>
-      <c r="C10" t="s">
-        <v>500</v>
-      </c>
-      <c r="D10">
-        <v>405.41</v>
-      </c>
-      <c r="E10">
-        <v>376.92</v>
-      </c>
-      <c r="F10">
-        <v>372.72</v>
-      </c>
-      <c r="G10">
-        <v>385.46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>501</v>
-      </c>
-      <c r="C11" t="s">
-        <v>502</v>
-      </c>
-      <c r="D11">
-        <v>408.26</v>
-      </c>
-      <c r="E11">
-        <v>378.42</v>
-      </c>
-      <c r="F11">
-        <v>383.28</v>
-      </c>
-      <c r="G11">
-        <v>387.31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>503</v>
-      </c>
-      <c r="C12" t="s">
-        <v>504</v>
-      </c>
-      <c r="D12">
-        <v>402.66</v>
-      </c>
-      <c r="E12">
-        <v>374.2</v>
-      </c>
-      <c r="F12">
-        <v>375.08</v>
-      </c>
-      <c r="G12">
-        <v>374.74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>505</v>
-      </c>
-      <c r="C13" t="s">
-        <v>506</v>
-      </c>
-      <c r="D13">
-        <v>407.64</v>
-      </c>
-      <c r="E13">
-        <v>375.96</v>
-      </c>
-      <c r="F13">
-        <v>372.46</v>
-      </c>
-      <c r="G13">
-        <v>378.56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>507</v>
-      </c>
-      <c r="C14" t="s">
-        <v>508</v>
-      </c>
-      <c r="D14">
-        <v>402.36</v>
-      </c>
-      <c r="E14">
-        <v>375.08</v>
-      </c>
-      <c r="F14">
-        <v>371.85</v>
-      </c>
-      <c r="G14">
-        <v>373.19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>509</v>
-      </c>
-      <c r="C15" t="s">
-        <v>510</v>
-      </c>
-      <c r="D15">
-        <v>400.4</v>
-      </c>
-      <c r="E15">
-        <v>373.46</v>
-      </c>
-      <c r="F15">
-        <v>369.73</v>
-      </c>
-      <c r="G15">
-        <v>376.03</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>511</v>
-      </c>
-      <c r="C16" t="s">
-        <v>512</v>
-      </c>
-      <c r="D16">
-        <v>400.63</v>
-      </c>
-      <c r="E16">
-        <v>374.81</v>
-      </c>
-      <c r="F16">
-        <v>366.83</v>
-      </c>
-      <c r="G16">
-        <v>370.52</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:K106"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A107" sqref="A107:XFD107"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1">
-        <v>2</v>
-      </c>
-      <c r="G1">
-        <v>3</v>
-      </c>
-      <c r="H1">
-        <v>4</v>
-      </c>
-      <c r="I1">
-        <v>5</v>
-      </c>
-      <c r="J1">
-        <v>6</v>
-      </c>
-      <c r="K1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
